--- a/biology/Botanique/Raiponce_en_épi/Raiponce_en_épi.xlsx
+++ b/biology/Botanique/Raiponce_en_épi/Raiponce_en_épi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raiponce_en_%C3%A9pi</t>
+          <t>Raiponce_en_épi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyteuma spicatum
 La Raiponce en épi (Phyteuma spicatum) est une plante herbacée vivace de la famille des Campanulacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raiponce_en_%C3%A9pi</t>
+          <t>Raiponce_en_épi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante à la tige érigée, non ramifiée, aux feuilles basales longuement pétiolées, ovales-cordiformes, aux feuilles supérieures sessiles, aux fleurs blanc-jaunâtre, bleues ou violacées disposées en épi.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raiponce_en_%C3%A9pi</t>
+          <t>Raiponce_en_épi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La plus remarquable est Phyteuma spicatum subsp. occidentale R. SCHULTZ (Synonymes: Phyteuma spicatum var. caeruleum GODRON; Phyteuma spicatum subsp. coeruleum R. SCHULTZ.) qui se distingue par la couleur bleue de la fleur[1]. C'est une sous-espèce plutôt montagnarde présente en particulier dans le Massif central.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La plus remarquable est Phyteuma spicatum subsp. occidentale R. SCHULTZ (Synonymes: Phyteuma spicatum var. caeruleum GODRON; Phyteuma spicatum subsp. coeruleum R. SCHULTZ.) qui se distingue par la couleur bleue de la fleur. C'est une sous-espèce plutôt montagnarde présente en particulier dans le Massif central.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raiponce_en_%C3%A9pi</t>
+          <t>Raiponce_en_épi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : capitule simple
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raiponce_en_%C3%A9pi</t>
+          <t>Raiponce_en_épi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,9 +633,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La racine et les jeunes feuilles sont comestibles fraîches[2], [3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La racine et les jeunes feuilles sont comestibles fraîches, .
 </t>
         </is>
       </c>
